--- a/biology/Médecine/Elio_Augusto_Di_Carlo/Elio_Augusto_Di_Carlo.xlsx
+++ b/biology/Médecine/Elio_Augusto_Di_Carlo/Elio_Augusto_Di_Carlo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elio Augusto Di Carlo (né le 2 septembre 1918 à Amatrice, dans la province de Rieti, dans le Latium et mort à Cantalupo in Sabina le 27 juillet 1998) est un médecin, ornithologue, naturaliste et historien italien.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il naît à Retrosi, hameau d'Amatrice, un petit village au pied du massif de la Laga (Apennins, en Italie centrale).
 « Retrosi: ici mes ancêtres ont vécu, ici j'ai vu la lumière moi-même, permettez-moi d'en parler, même si elle n'a pas gloire ou des événements importants. »
-— Alle pendici della Laga, E.A. Di Carlo[1].
+— Alle pendici della Laga, E.A. Di Carlo.
 Il est diplômé en médecine de l'Université de Rome « La Sapienza ».
 Il exerce plus de quarante ans comme médecin, dont trente-cinq ans dans le village de Cantalupo in Sabina (où il prend son service le 10 juin 1954), dans la province de Rieti. Spécialiste en pédiatrie, il a dirigé pendant plus de trente ans les consultations de l'Opera nazionale maternità e infanzia (it) dans diverses communes de la province.
 </t>
@@ -546,7 +560,9 @@
           <t>Ornithologie et rencontre avec la personnalité d'Edgardo Moltoni</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se consacre, déjà jeune, aux sciences naturelles et en particulier à l'ornithologie. Au début, les lieux de sa recherche ont été l'Italie centrale et les Apennins.
 Di Carlo est l'un des quelques élèves de l'ornithologue italien Edgardo Moltoni.
@@ -580,26 +596,144 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Œuvres d'histoire
-Livres d'histoire locale (Sabine, région des Monts de la Laga et Italie centrale)
-Elio Augusto Di Carlo, Il Castello di Cantalupo in Sabina, 1989.
+          <t>Œuvres d'histoire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Livres d'histoire locale (Sabine, région des Monts de la Laga et Italie centrale)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Elio Augusto Di Carlo, Il Castello di Cantalupo in Sabina, 1989.
 Elio Augusto Di Carlo, Alle pendici della Laga, tra sec. VI e sec. XVII, 1992.
 Elio Augusto Di Carlo e Fabio Settimi, I Castelli di Forano e di Gavignano, 1995.
-Elio Augusto Di Carlo, I Castelli della Sabina, 1998.
-Autres publications d'histoire
-Elio Augusto Di Carlo, Un ritratto di S.Giuseppe da Leonessa nella chiesa dei Cappuccini di Montefiolo (Casperia), Leonessa e il suo santo, 1971, a.VIII, n.43, p. 58-60.
+Elio Augusto Di Carlo, I Castelli della Sabina, 1998.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Elio_Augusto_Di_Carlo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elio_Augusto_Di_Carlo</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Œuvres d'histoire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres publications d'histoire</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Elio Augusto Di Carlo, Un ritratto di S.Giuseppe da Leonessa nella chiesa dei Cappuccini di Montefiolo (Casperia), Leonessa e il suo santo, 1971, a.VIII, n.43, p. 58-60.
 Elio Augusto Di Carlo, I Cappuccini e la Congregazione "De Propaganda Fide", Leonessa e il suo santo, 142, 4, 1989.
-Elio Augusto Di Carlo, La battaglia di Cantalupo, 1989[2],[3].
+Elio Augusto Di Carlo, La battaglia di Cantalupo, 1989,.
 Elio Augusto Di Carlo, In margine ad una commemorazione: Edward Lear's, Leonessa e il suo santo, 148, 6-9, 1990.
 Elio Augusto Di Carlo, Chiesa di S.Adamo in Cantalupo, 1993.
-Elio Augusto Di Carlo, Vincenzo Camuccini pittore neoclassico (1771-1844), mostra della sua opera pittorica in occasione del 150 anniversario della sua morte, Palazzo Camuccini, Cantalupo in Sabina, 12-27 agosto 1995[4].
-Travaux ornithologiques et naturalistes
-Plus de cent vingt travaux ornithologiques ont été publiés principalement dans les revues Gli Uccelli d'Italia (Les Oiseaux d'Italie) et Rivista Italiana di Ornitologia (Revue Italienne d'Ornithologie)[5],[6].
+Elio Augusto Di Carlo, Vincenzo Camuccini pittore neoclassico (1771-1844), mostra della sua opera pittorica in occasione del 150 anniversario della sua morte, Palazzo Camuccini, Cantalupo in Sabina, 12-27 agosto 1995.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Elio_Augusto_Di_Carlo</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elio_Augusto_Di_Carlo</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Travaux ornithologiques et naturalistes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Plus de cent vingt travaux ornithologiques ont été publiés principalement dans les revues Gli Uccelli d'Italia (Les Oiseaux d'Italie) et Rivista Italiana di Ornitologia (Revue Italienne d'Ornithologie),.
 Di Carlo a également publié : 
 "Avifauna del comprensorio tolfetano, cerite, manziate (Lazio settentrionale)", nel quaderno n. 227 del 1971 dell'Accademia dei Lincei.
-"Ricerche ornitologiche sul litorale tirrenico del Lazio e Toscana", nel quaderno n. 254 del 1981 dell'Accademia dei Lincei.
-Monographies
-Risultati di ricerche ornitologiche su Montagne d'Abruzzo (Monti della Laga), D. Rossi e E.A. Di Carlo, 1948.
+"Ricerche ornitologiche sul litorale tirrenico del Lazio e Toscana", nel quaderno n. 254 del 1981 dell'Accademia dei Lincei.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Elio_Augusto_Di_Carlo</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elio_Augusto_Di_Carlo</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Travaux ornithologiques et naturalistes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Monographies</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Risultati di ricerche ornitologiche su Montagne d'Abruzzo (Monti della Laga), D. Rossi e E.A. Di Carlo, 1948.
 Gruppo del monte Terminillo, E.A. Di Carlo, 1958.
 Ricerche ornitologiche attraverso la Calabria e viaggi a scopo ornitologico nelle Puglie, E.A. Di Carlo, 1960.
 Gli uccelli dell'isola d'Elba, 1970 (con Edgardo Moltoni).
@@ -608,40 +742,42 @@
 Gli uccelli della Majella, J. Heinze e E.A. Di Carlo, 1976.
 Indagine preliminare sulla presenza passata ed attuale dell'Aquila reale Aquila chrysaetos sugli Appennini, E.A. Di Carlo, Gli Uccelli d'Italia, 1980, 5 (6): 263-283.
 Check list degli uccelli del Lazio, Sitta, 5: 35 47, E.A. Di Carlo, 1991.
-Gli uccelli dei Monti Sabini, Cantalupo in Sabina, 1995 (Inedito) [7].
+Gli uccelli dei Monti Sabini, Cantalupo in Sabina, 1995 (Inedito) .
 Ce naturaliste a aussi effectué des travaux sur l'avifaune de la Corse, de Sardaigne et des îles Tremiti.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Elio_Augusto_Di_Carlo</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Elio_Augusto_Di_Carlo</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1965 - Chevalier du travail, Présidence de la République Italienne[7].
-1998 - Prix de la Culture, Conseil des Ministres Italien, avec le livre d'histoire I Castelli della Sabina [8].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1965 - Chevalier du travail, Présidence de la République Italienne.
+1998 - Prix de la Culture, Conseil des Ministres Italien, avec le livre d'histoire I Castelli della Sabina .
 Il existe une place Elio Augusto Di Carlo à Cantalupo in Sabina en Italie.</t>
         </is>
       </c>
